--- a/Assets/ExcelData/Stage/StageEnemyParam.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -58,13 +58,52 @@
     <t xml:space="preserve">OtherParameters</t>
   </si>
   <si>
-    <t xml:space="preserve">V3:RSMEP:(0,0,-20); F:SMS:10; V3:RCCP:(30,0,0); F:CMA:135; F:CMS:45; F:SBI:2; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5;</t>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-15); F:SMS:25; V3:RCCP:(30,0,0); F:CMA:135; F:CMS:40; F:SBI:300; I:SBN:3; F:SBA:5; F:CBI:3; I:CBN:1; F:CBA:0; F:VOST:0;</t>
   </si>
   <si>
-    <t xml:space="preserve">V3:RSMEP:(0,0,-20); F:SMS:10; V3:RCCP:(-30,0,0); F:CMA:135; F:CMS:-45; F:SBI:2; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5;</t>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-15); F:SMS:25; V3:RCCP:(-30,0,0); F:CMA:135; F:CMS:-40; F:SBI:300; I:SBN:3; F:SBA:5; F:CBI:3; I:CBN:1; F:CBA:0; F:VOST:0;</t>
   </si>
   <si>
-    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; V3:RWMEP:(-80, 0, 10); F:WML:0.05; F:WWT:1; I:BN:5; F:BA:5;</t>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-15); F:SMS:25; V3:RCCP:(40,0,0); F:CMA:135; F:CMS:40; F:SBI:300; I:SBN:3; F:SBA:5; F:CBI:2; I:CBN:1; F:CBA:0; F:VOST:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-15); F:SMS:25; V3:RCCP:(-40,0,0); F:CMA:135; F:CMS:-40; F:SBI:300; I:SBN:3; F:SBA:5; F:CBI:2; I:CBN:1; F:CBA:0; F:VOST:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:MD:(10,0,3); F:MS:20; F:BI:300; I:BN:1; F:BA:0; F:VOST:1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:MD:(-10,0,3); F:MS:20; F:BI:300; I:BN:1; F:BA:0; F:VOST:1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.005; V3:RWMEP:(-80, 0, 10); F:WML:0.05; F:WWT:2; I:BN:1; F:BA:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.005; V3:RWMEP:(80, 0, 10); F:WML:0.05; F:WWT:2; I:BN:1; F:BA:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-20); F:SMS:25; V3:RCCP:(30,0,0); F:CMA:135; F:CMS:60; F:SBI:2; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5; F:VOST:0.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-20); F:SMS:25; V3:RCCP:(-30,0,0); F:CMA:135; F:CMS:-60; F:SBI:2; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5; F:VOST:0.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-20); F:SMS:25; V3:RCCP:(30,0,0); F:CMA:135; F:CMS:60; F:SBI:2; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5; F:VOST:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-20); F:SMS:25; V3:RCCP:(-30,0,0); F:CMA:135; F:CMS:-60; F:SBI:2; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5; F:VOST:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(-80, 0, -50); F:WML:0.05; F:WWT:2; I:BN:1; F:BA:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(80, 0, -50); F:WML:0.05; F:WWT:2; I:BN:1; F:BA:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(0, 0, -80); F:WML:0.05; F:WWT:10; I:BN:5; F:BA:10; F:RSI:0.5; F:RSPD:60;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(0, 0, -80); F:WML:0.05; F:WWT:10; I:BN:4; F:BA:20; F:RSI:0.5; F:RSPD:60;</t>
   </si>
 </sst>
 </file>
@@ -174,10 +213,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,20 +265,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <f aca="false">V2</f>
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -260,22 +302,26 @@
       <c r="L2" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="V2" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <f aca="false">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -300,20 +346,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="A4" s="1" t="n">
+        <f aca="false">A3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -338,20 +385,21 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="A5" s="1" t="n">
+        <f aca="false">A4+1</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -376,20 +424,21 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="A6" s="1" t="n">
+        <f aca="false">A5+3</f>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -414,20 +463,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="A7" s="1" t="n">
+        <f aca="false">A6+1</f>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -452,20 +502,21 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="A8" s="1" t="n">
+        <f aca="false">A7+1</f>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -490,20 +541,21 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="A9" s="1" t="n">
+        <f aca="false">A8+1</f>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -528,16 +580,17 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="A10" s="1" t="n">
+        <f aca="false">V10</f>
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -563,6 +616,2277 @@
       </c>
       <c r="L10" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <f aca="false">A10+1</f>
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <f aca="false">A11+1</f>
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <f aca="false">A12+1</f>
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <f aca="false">A13+3</f>
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <f aca="false">A14+1</f>
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <f aca="false">A15+1</f>
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <f aca="false">A16+1</f>
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <f aca="false">V18</f>
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <f aca="false">A18+1</f>
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <f aca="false">A19+1</f>
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">A20+1</f>
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <f aca="false">A21+1</f>
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">A22+1</f>
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <f aca="false">A23+3</f>
+        <v>35</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <f aca="false">A24+1</f>
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <f aca="false">A25+1</f>
+        <v>37</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">A26+1</f>
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <f aca="false">A27+1</f>
+        <v>39</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <f aca="false">A28+1</f>
+        <v>40</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">V30</f>
+        <v>43</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <f aca="false">A30+2</f>
+        <v>45</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <f aca="false">A31+2</f>
+        <v>47</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <f aca="false">A32+2</f>
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <f aca="false">V34</f>
+        <v>52</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <f aca="false">A34+0.5</f>
+        <v>52.5</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <f aca="false">A34+1</f>
+        <v>53</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <f aca="false">A35+1</f>
+        <v>53.5</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <f aca="false">A37+3</f>
+        <v>56.5</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <f aca="false">A35+5</f>
+        <v>57.5</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <f aca="false">A36+5</f>
+        <v>58</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <f aca="false">A37+5</f>
+        <v>58.5</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <f aca="false">A41+3</f>
+        <v>61.5</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <f aca="false">A42+1</f>
+        <v>62.5</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <f aca="false">A43+1</f>
+        <v>63.5</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <f aca="false">A44+1</f>
+        <v>64.5</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <f aca="false">A41+3</f>
+        <v>61.5</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <f aca="false">A46+1</f>
+        <v>62.5</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <f aca="false">A47+1</f>
+        <v>63.5</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <f aca="false">A48+1</f>
+        <v>64.5</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <f aca="false">A49+3</f>
+        <v>67.5</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <f aca="false">A50+1</f>
+        <v>68.5</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <f aca="false">A51+1</f>
+        <v>69.5</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <f aca="false">A52+1</f>
+        <v>70.5</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <f aca="false">A49+3</f>
+        <v>67.5</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <f aca="false">A54+1</f>
+        <v>68.5</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <f aca="false">A55+1</f>
+        <v>69.5</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <f aca="false">A56+1</f>
+        <v>70.5</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <f aca="false">A57+3</f>
+        <v>73.5</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <f aca="false">A58+0.2</f>
+        <v>73.7</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <f aca="false">A59+1</f>
+        <v>74.7</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <f aca="false">A60+0.2</f>
+        <v>74.9</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <f aca="false">A61+1</f>
+        <v>75.9</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <f aca="false">A62+0.2</f>
+        <v>76.1</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <f aca="false">A63+1</f>
+        <v>77.1</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <f aca="false">A64+0.2</f>
+        <v>77.3</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelData/Stage/StageEnemyParam.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -100,10 +100,34 @@
     <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(80, 0, -50); F:WML:0.05; F:WWT:2; I:BN:1; F:BA:0;</t>
   </si>
   <si>
-    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(0, 0, -80); F:WML:0.05; F:WWT:10; I:BN:5; F:BA:10; F:RSI:0.5; F:RSPD:60;</t>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(0, 0, 30); F:WML:0.01; F:WWT:10; I:BN:5; F:BA:10; F:RSI:0.5; F:RSPD:60;</t>
   </si>
   <si>
-    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(0, 0, -80); F:WML:0.05; F:WWT:10; I:BN:4; F:BA:20; F:RSI:0.5; F:RSPD:60;</t>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(0, 0, 50); F:WML:0.01; F:WWT:10; I:BN:4; F:BA:20; F:RSI:0.5; F:RSPD:60;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(30,0,0); F:SMS:25; V3:RCCP:(0,0,20); F:CMA:180; F:CMS:60; F:SBI:1; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5; F:VOST:0.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(-30,0,0); F:SMS:25; V3:RCCP:(0,0,20); F:CMA:180; F:CMS:-60; F:SBI:1; I:SBN:3; F:SBA:5; F:CBI:1.5; I:CBN:3; F:CBA:5; F:VOST:0.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(-80, 0, 10); F:WML:0.05; F:WWT:3; I:BN:3; F:BA:10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(80, 0, 10); F:WML:0.05; F:WWT:3; I:BN:3; F:BA:10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(150, 0, 0); F:WML:0.05; F:WWT:0.8; I:BN:5; F:BA:5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:MD:(-10,0,3); F:MS:20; F:BI:2; I:BN:3; F:BA:10; F:VOST:0.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:AP:true; F:SMD:30; F:SML:0.05; F:LT:0.01; V3:RWMEP:(-150, 0, 0); F:WML:0.05; F:WWT:0.8; I:BN:5; F:BA:5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:MD:(10,0,3); F:MS:20; F:BI:2; I:BN:3; F:BA:10; F:VOST:0.1;</t>
   </si>
 </sst>
 </file>
@@ -213,12 +237,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2887,6 +2911,863 @@
       </c>
       <c r="L68" s="0" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <f aca="false">A69+0.5</f>
+        <v>98.5</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <f aca="false">A70+0.5</f>
+        <v>99</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <f aca="false">A71+0.5</f>
+        <v>99.5</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <f aca="false">A72+2</f>
+        <v>101.5</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <f aca="false">A73+0.5</f>
+        <v>102</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <f aca="false">A74+0.5</f>
+        <v>102.5</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <f aca="false">A75+0.5</f>
+        <v>103</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <f aca="false">A76+3</f>
+        <v>106</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <f aca="false">A77+0.5</f>
+        <v>106.5</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <f aca="false">A78+1</f>
+        <v>107.5</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <f aca="false">A79+0.5</f>
+        <v>108</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <f aca="false">A80+1</f>
+        <v>109</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <f aca="false">A81+0.5</f>
+        <v>109.5</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <f aca="false">A82+1</f>
+        <v>110.5</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <f aca="false">A83+0.5</f>
+        <v>111</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <f aca="false">A84+3</f>
+        <v>114</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <f aca="false">A85+0.5</f>
+        <v>114.5</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <f aca="false">A86+0.5</f>
+        <v>115</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <f aca="false">A87+3</f>
+        <v>118</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <f aca="false">A88+0.5</f>
+        <v>118.5</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <f aca="false">A89+0.5</f>
+        <v>119</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelData/Stage/StageEnemyParam.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -237,12 +237,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="L91" activeCellId="0" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3768,6 +3768,44 @@
       </c>
       <c r="L90" s="0" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelData/Stage/StageEnemyParam.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyParam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\翔\Documents\SRC_Shooting\Assets\ExcelData\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC02D34-F14B-4A9E-A53F-263767A8676F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D299BDDA-AA83-4F05-84A5-4E9373CFAD64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4039,7 +4039,7 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>0.5</v>

--- a/Assets/ExcelData/Stage/StageEnemyParam.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyParam.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\翔\Documents\SRC_Shooting\Assets\ExcelData\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D299BDDA-AA83-4F05-84A5-4E9373CFAD64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFB1AC-31AB-4196-8D6B-C0DACA410BBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CommandEvent 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>Time</t>
   </si>
@@ -133,6 +134,10 @@
   </si>
   <si>
     <t>V3:MD:(10,0,3); F:MS:20; F:BI:2; I:BN:3; F:BA:10; F:VOST:0.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -498,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
@@ -4075,4 +4080,199 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05DA135-0BB1-43E7-AFF8-97CE2FBA0C2E}">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1025" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>V2</f>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>180</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Assets/ExcelData/Stage/StageEnemyParam.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyParam.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">OtherParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3:RSMEP:(0,0,-0.5); F:SMS:0.5; V3:RCCP:(0.3,0,0); F:CMA:180; F:CMS:60; F:SBI:0.5; I:SBN:1; F:SBA:0; F:CBI:0.5; I:CBN:1; F:CBA:0; F:VOST:0;</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -242,7 +245,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -296,28 +299,28 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="false">V2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -330,6 +333,9 @@
       </c>
       <c r="L2" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>2</v>
@@ -728,7 +734,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>2</v>
@@ -852,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>15</v>
@@ -1167,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>27</v>
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>43</v>
@@ -1953,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V34" s="0" t="n">
         <v>52</v>
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4097,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelData/Stage/StageEnemyParam.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyParam.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -247,10 +247,10 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,10 +339,42 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -532,7 +564,7 @@
   </sheetPr>
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -731,7 +763,7 @@
   </sheetPr>
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
